--- a/Inclusion_Lists/MoInt_Inclusion_HILIC_negative.xlsx
+++ b/Inclusion_Lists/MoInt_Inclusion_HILIC_negative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiplDoc\Desktop\Paper V15 Extraction\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiplDoc\Desktop\V15 URIDINE NEW\HILIC neg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162E382-9992-48BC-BB39-A87E2223C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20E8C1-F786-46E1-BF13-28BDD7841792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{62ABC2A5-76CD-4CBD-8982-1ADA00BA3BB4}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70ADDD6-5034-4B80-B6BE-9E119E9D2AA7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +566,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>245.07791</v>
+        <v>243.06229999999999</v>
       </c>
       <c r="C11">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,6 +593,10 @@
       <c r="C13">
         <v>543</v>
       </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
